--- a/Submission 2.0/i75_error_log.xlsx
+++ b/Submission 2.0/i75_error_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msais\Desktop\Submission2.0\Submission 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF52CB0A-B7D7-43C7-8823-72B1D7B4BA98}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF7CBE5-ADED-403F-AAA9-1FDD90B97A9D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BA761C28-96FE-464C-ACD2-9DE5B797B113}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -540,10 +540,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>736512.24057553802</v>
+        <v>736482.01721401198</v>
       </c>
       <c r="D5">
-        <v>3750779.9964897898</v>
+        <v>3750779.9454453602</v>
       </c>
       <c r="E5">
         <v>736465.73748737096</v>

--- a/Submission 2.0/i75_error_log.xlsx
+++ b/Submission 2.0/i75_error_log.xlsx
@@ -83,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -105,12 +105,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,7 +154,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -184,20 +178,20 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.72064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.70445344129555"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2955465587045"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.080971659919"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.8502024291498"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.7813765182186"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3400809716599"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.92712550607287"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
